--- a/rhla_analysis/rhla1_3_normal_result/k7.xlsx
+++ b/rhla_analysis/rhla1_3_normal_result/k7.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.007001830193746194</v>
+        <v>0.007001830193746228</v>
       </c>
       <c r="B2" t="n">
         <v>0.3223403619854484</v>
@@ -466,12 +466,12 @@
         <v>0.1346973572037511</v>
       </c>
       <c r="D2" t="n">
-        <v>46.03658658751139</v>
+        <v>46.03658658751117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01049503297922701</v>
+        <v>0.01049503297922702</v>
       </c>
       <c r="B3" t="n">
         <v>0.2959581239272742</v>
@@ -480,12 +480,12 @@
         <v>0.144075021312873</v>
       </c>
       <c r="D3" t="n">
-        <v>28.19982791031423</v>
+        <v>28.19982791031421</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01135780482632448</v>
+        <v>0.01135780482632442</v>
       </c>
       <c r="B4" t="n">
         <v>0.3304000922330199</v>
@@ -494,12 +494,12 @@
         <v>0.1402387041773231</v>
       </c>
       <c r="D4" t="n">
-        <v>29.09013645552679</v>
+        <v>29.09013645552694</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.003573140034709541</v>
+        <v>0.003573140034709558</v>
       </c>
       <c r="B5" t="n">
         <v>0.2925688671732694</v>
@@ -508,12 +508,12 @@
         <v>0.1513213981244672</v>
       </c>
       <c r="D5" t="n">
-        <v>81.88004509514059</v>
+        <v>81.88004509514019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01210508417235054</v>
+        <v>0.01210508417235059</v>
       </c>
       <c r="B6" t="n">
         <v>0.2956998898984374</v>
@@ -522,12 +522,12 @@
         <v>0.1462063086104007</v>
       </c>
       <c r="D6" t="n">
-        <v>24.42774339180982</v>
+        <v>24.42774339180971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.005015224575526772</v>
+        <v>0.00501522457552674</v>
       </c>
       <c r="B7" t="n">
         <v>0.3114797853337682</v>
@@ -536,12 +536,12 @@
         <v>0.1402387041773231</v>
       </c>
       <c r="D7" t="n">
-        <v>62.10684699020722</v>
+        <v>62.10684699020762</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.007786793696060408</v>
+        <v>0.00778679369606045</v>
       </c>
       <c r="B8" t="n">
         <v>0.2974292174188078</v>
@@ -550,7 +550,7 @@
         <v>0.1457800511508952</v>
       </c>
       <c r="D8" t="n">
-        <v>38.19662225920881</v>
+        <v>38.19662225920861</v>
       </c>
     </row>
     <row r="9">
@@ -569,21 +569,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.007200986777498103</v>
+        <v>0.007200986777498005</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3087803410910536</v>
+        <v>0.3087803410910537</v>
       </c>
       <c r="C10" t="n">
         <v>0.1436487638533674</v>
       </c>
       <c r="D10" t="n">
-        <v>42.88028163805846</v>
+        <v>42.88028163805905</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.007362706163762713</v>
+        <v>0.007362706163762674</v>
       </c>
       <c r="B11" t="n">
         <v>0.2867231595227961</v>
@@ -592,7 +592,7 @@
         <v>0.1265984654731458</v>
       </c>
       <c r="D11" t="n">
-        <v>38.94263238888596</v>
+        <v>38.94263238888616</v>
       </c>
     </row>
   </sheetData>
